--- a/BEMFSimulation/ExcelResults/LineVoltage2000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage2000.xlsx
@@ -408,13 +408,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>-130.0536834447589</v>
+        <v>-131.2779653205497</v>
       </c>
       <c r="C2">
-        <v>270.027508225533</v>
+        <v>275.1610967956744</v>
       </c>
       <c r="D2">
-        <v>-139.9738247807742</v>
+        <v>-143.8831314751247</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B3">
-        <v>-117.146737962039</v>
+        <v>-120.4287238100457</v>
       </c>
       <c r="C3">
-        <v>262.3638657052504</v>
+        <v>270.7127899744702</v>
       </c>
       <c r="D3">
-        <v>-145.2171277432114</v>
+        <v>-150.2840661644245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.00025</v>
       </c>
       <c r="B4">
-        <v>-90.30565659692242</v>
+        <v>-95.80675872089579</v>
       </c>
       <c r="C4">
-        <v>246.5327620114064</v>
+        <v>256.7510485969576</v>
       </c>
       <c r="D4">
-        <v>-156.227105414484</v>
+        <v>-160.9442898760618</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B5">
-        <v>-55.05137881874494</v>
+        <v>-53.99179491908963</v>
       </c>
       <c r="C5">
-        <v>226.7841462616422</v>
+        <v>227.3429784530674</v>
       </c>
       <c r="D5">
-        <v>-171.7327674428973</v>
+        <v>-173.3511835339777</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B6">
-        <v>-26.53381326102889</v>
+        <v>-25.58855552736634</v>
       </c>
       <c r="C6">
-        <v>213.4994144037732</v>
+        <v>220.1481819188205</v>
       </c>
       <c r="D6">
-        <v>-186.9656011427443</v>
+        <v>-194.5596263914541</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0005</v>
       </c>
       <c r="B7">
-        <v>-11.8321406592008</v>
+        <v>-12.90728303006084</v>
       </c>
       <c r="C7">
-        <v>206.7243934851271</v>
+        <v>213.7865354177982</v>
       </c>
       <c r="D7">
-        <v>-194.8922528259262</v>
+        <v>-200.8792523877373</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B8">
-        <v>-3.224950318530205</v>
+        <v>-4.827664808919039</v>
       </c>
       <c r="C8">
-        <v>207.5925471701088</v>
+        <v>210.7335149178913</v>
       </c>
       <c r="D8">
-        <v>-204.3675968515786</v>
+        <v>-205.9058501089723</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B9">
-        <v>3.06448330633657</v>
+        <v>3.705867092072822</v>
       </c>
       <c r="C9">
-        <v>205.0702496409011</v>
+        <v>206.8673441650613</v>
       </c>
       <c r="D9">
-        <v>-208.1347329472377</v>
+        <v>-210.5732112571341</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0007500000000000001</v>
       </c>
       <c r="B10">
-        <v>11.67459622582178</v>
+        <v>13.10326983873427</v>
       </c>
       <c r="C10">
-        <v>195.4255733468537</v>
+        <v>199.3610200771305</v>
       </c>
       <c r="D10">
-        <v>-207.1001695726755</v>
+        <v>-212.4642899158648</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0008333333333333335</v>
       </c>
       <c r="B11">
-        <v>26.18594267249941</v>
+        <v>26.30595934949022</v>
       </c>
       <c r="C11">
-        <v>187.6459438789608</v>
+        <v>197.0287791143187</v>
       </c>
       <c r="D11">
-        <v>-213.8318865514602</v>
+        <v>-223.3347384638089</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0009166666666666669</v>
       </c>
       <c r="B12">
-        <v>54.81663165918982</v>
+        <v>56.39268243345875</v>
       </c>
       <c r="C12">
-        <v>172.3074890969374</v>
+        <v>174.0926548389785</v>
       </c>
       <c r="D12">
-        <v>-227.1241207561272</v>
+        <v>-230.4853372724373</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001</v>
       </c>
       <c r="B13">
-        <v>89.73929741705689</v>
+        <v>93.45659803533412</v>
       </c>
       <c r="C13">
-        <v>156.7086331876099</v>
+        <v>158.8688639612876</v>
       </c>
       <c r="D13">
-        <v>-246.4479306046667</v>
+        <v>-252.3254619966218</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B14">
-        <v>116.8593547654114</v>
+        <v>121.8417409887225</v>
       </c>
       <c r="C14">
-        <v>145.2105814160948</v>
+        <v>150.1933837767232</v>
       </c>
       <c r="D14">
-        <v>-262.0699361815063</v>
+        <v>-272.0351247654457</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B15">
-        <v>129.6841294746543</v>
+        <v>130.3684611622456</v>
       </c>
       <c r="C15">
-        <v>139.5498545131672</v>
+        <v>143.0429156224897</v>
       </c>
       <c r="D15">
-        <v>-269.2339839878215</v>
+        <v>-273.4113767847354</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.00125</v>
       </c>
       <c r="B16">
-        <v>138.1260999856782</v>
+        <v>139.837755859244</v>
       </c>
       <c r="C16">
-        <v>137.9054864279977</v>
+        <v>140.3926077422488</v>
       </c>
       <c r="D16">
-        <v>-276.0315864136759</v>
+        <v>-280.2303636014927</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B17">
-        <v>139.6465262074403</v>
+        <v>143.0371063712423</v>
       </c>
       <c r="C17">
-        <v>130.0935591144767</v>
+        <v>131.3878957696449</v>
       </c>
       <c r="D17">
-        <v>-269.740085321917</v>
+        <v>-274.4250021408872</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001416666666666667</v>
       </c>
       <c r="B18">
-        <v>144.8127393087793</v>
+        <v>150.2876147887282</v>
       </c>
       <c r="C18">
-        <v>117.2208269794631</v>
+        <v>120.9378658395752</v>
       </c>
       <c r="D18">
-        <v>-262.0335662882424</v>
+        <v>-271.2254806283033</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0015</v>
       </c>
       <c r="B19">
-        <v>156.4635948101207</v>
+        <v>161.5926147688584</v>
       </c>
       <c r="C19">
-        <v>90.62782637773088</v>
+        <v>95.88048456442317</v>
       </c>
       <c r="D19">
-        <v>-247.0914211878516</v>
+        <v>-257.4730993332815</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B20">
-        <v>172.2219116558356</v>
+        <v>173.9216956278951</v>
       </c>
       <c r="C20">
-        <v>55.10243343039013</v>
+        <v>54.55896813484712</v>
       </c>
       <c r="D20">
-        <v>-227.3243450862257</v>
+        <v>-228.4806637627422</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B21">
-        <v>187.4188591436411</v>
+        <v>195.2557086960258</v>
       </c>
       <c r="C21">
-        <v>26.44787765835466</v>
+        <v>26.07844381935148</v>
       </c>
       <c r="D21">
-        <v>-213.8667368019957</v>
+        <v>-221.3341525153773</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.00175</v>
       </c>
       <c r="B22">
-        <v>195.1418772382436</v>
+        <v>200.9073701392932</v>
       </c>
       <c r="C22">
-        <v>11.97072762081308</v>
+        <v>13.16204421298233</v>
       </c>
       <c r="D22">
-        <v>-207.1126048590566</v>
+        <v>-214.0694143522755</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001833333333333333</v>
       </c>
       <c r="B23">
-        <v>204.4201551698724</v>
+        <v>206.3056926756058</v>
       </c>
       <c r="C23">
-        <v>3.322476806311826</v>
+        <v>4.398044080007054</v>
       </c>
       <c r="D23">
-        <v>-207.7426319761842</v>
+        <v>-210.7037367556129</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B24">
-        <v>207.9986261662822</v>
+        <v>211.5628398976735</v>
       </c>
       <c r="C24">
-        <v>-3.12092401218257</v>
+        <v>-4.245642775272117</v>
       </c>
       <c r="D24">
-        <v>-204.8777021540996</v>
+        <v>-207.3171971224014</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002</v>
       </c>
       <c r="B25">
-        <v>207.3770510371333</v>
+        <v>212.9656681278729</v>
       </c>
       <c r="C25">
-        <v>-11.83926663218815</v>
+        <v>-13.05109938040144</v>
       </c>
       <c r="D25">
-        <v>-195.5377844049452</v>
+        <v>-199.9145687474715</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B26">
-        <v>214.2614629257708</v>
+        <v>222.7582631774536</v>
       </c>
       <c r="C26">
-        <v>-26.23176022623774</v>
+        <v>-25.68296486216953</v>
       </c>
       <c r="D26">
-        <v>-188.0297026995331</v>
+        <v>-197.075298315284</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B27">
-        <v>227.6263030325249</v>
+        <v>229.5111748631489</v>
       </c>
       <c r="C27">
-        <v>-54.79904487374753</v>
+        <v>-55.5020699580433</v>
       </c>
       <c r="D27">
-        <v>-172.8272581587773</v>
+        <v>-174.0091049051057</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.002249999999999999</v>
       </c>
       <c r="B28">
-        <v>247.3129717623526</v>
+        <v>252.7130726121029</v>
       </c>
       <c r="C28">
-        <v>-90.02448520943275</v>
+        <v>-93.61907759230486</v>
       </c>
       <c r="D28">
-        <v>-157.2884865529199</v>
+        <v>-159.0939950197981</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.002333333333333333</v>
       </c>
       <c r="B29">
-        <v>262.5518259421374</v>
+        <v>273.1340558598428</v>
       </c>
       <c r="C29">
-        <v>-117.1573253145505</v>
+        <v>-122.3409660029368</v>
       </c>
       <c r="D29">
-        <v>-145.3945006275869</v>
+        <v>-150.793089856906</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B30">
-        <v>269.2323772633249</v>
+        <v>274.350370563656</v>
       </c>
       <c r="C30">
-        <v>-129.8393110340663</v>
+        <v>-130.7549461588753</v>
       </c>
       <c r="D30">
-        <v>-139.3930662292586</v>
+        <v>-143.5954244047808</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002499999999999999</v>
       </c>
       <c r="B31">
-        <v>275.8151011174578</v>
+        <v>279.6416087807248</v>
       </c>
       <c r="C31">
-        <v>-138.0787776143366</v>
+        <v>-139.7900866726872</v>
       </c>
       <c r="D31">
-        <v>-137.7363235031212</v>
+        <v>-139.8515221080377</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002583333333333332</v>
       </c>
       <c r="B32">
-        <v>269.5348411863565</v>
+        <v>272.7244210963569</v>
       </c>
       <c r="C32">
-        <v>-139.6508614047923</v>
+        <v>-142.6430746448744</v>
       </c>
       <c r="D32">
-        <v>-129.8839797815642</v>
+        <v>-130.0813464514825</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002666666666666666</v>
       </c>
       <c r="B33">
-        <v>261.8846499684762</v>
+        <v>270.4562930314329</v>
       </c>
       <c r="C33">
-        <v>-144.891608655331</v>
+        <v>-150.004414163421</v>
       </c>
       <c r="D33">
-        <v>-116.9930413131452</v>
+        <v>-120.4518788680119</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002749999999999999</v>
       </c>
       <c r="B34">
-        <v>246.8881005562789</v>
+        <v>257.6757208815621</v>
       </c>
       <c r="C34">
-        <v>-156.3856782740872</v>
+        <v>-161.3559213548331</v>
       </c>
       <c r="D34">
-        <v>-90.5024222821917</v>
+        <v>-96.319799526729</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002833333333333332</v>
       </c>
       <c r="B35">
-        <v>227.1783231369056</v>
+        <v>227.9590557453018</v>
       </c>
       <c r="C35">
-        <v>-172.0589749743046</v>
+        <v>-173.287581251462</v>
       </c>
       <c r="D35">
-        <v>-55.11934816260101</v>
+        <v>-54.67147449383982</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002916666666666665</v>
       </c>
       <c r="B36">
-        <v>213.8122419423002</v>
+        <v>220.3283062802284</v>
       </c>
       <c r="C36">
-        <v>-187.2533226848902</v>
+        <v>-194.6472014513515</v>
       </c>
       <c r="D36">
-        <v>-26.55891925741005</v>
+        <v>-25.68110482887686</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002999999999999999</v>
       </c>
       <c r="B37">
-        <v>207.1934011792448</v>
+        <v>213.7946039420724</v>
       </c>
       <c r="C37">
-        <v>-195.270383160523</v>
+        <v>-201.0911102650881</v>
       </c>
       <c r="D37">
-        <v>-11.92301801872176</v>
+        <v>-12.70349367698432</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.003083333333333332</v>
       </c>
       <c r="B38">
-        <v>207.8007313455996</v>
+        <v>210.6984337303688</v>
       </c>
       <c r="C38">
-        <v>-204.5583896601892</v>
+        <v>-206.1409775407705</v>
       </c>
       <c r="D38">
-        <v>-3.24234168541048</v>
+        <v>-4.557456189598341</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.003166666666666665</v>
       </c>
       <c r="B39">
-        <v>205.1452285224214</v>
+        <v>207.3537934450543</v>
       </c>
       <c r="C39">
-        <v>-208.3518025526239</v>
+        <v>-211.1932738202794</v>
       </c>
       <c r="D39">
-        <v>3.206574030202518</v>
+        <v>3.839480375225079</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.003249999999999999</v>
       </c>
       <c r="B40">
-        <v>195.2846090597486</v>
+        <v>199.7692065133456</v>
       </c>
       <c r="C40">
-        <v>-207.0853603020264</v>
+        <v>-212.712729336575</v>
       </c>
       <c r="D40">
-        <v>11.80075124227775</v>
+        <v>12.94352282322942</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.003333333333333332</v>
       </c>
       <c r="B41">
-        <v>187.7319119537724</v>
+        <v>197.6932465465787</v>
       </c>
       <c r="C41">
-        <v>-213.9236767278973</v>
+        <v>-223.7113893931165</v>
       </c>
       <c r="D41">
-        <v>26.19176477412488</v>
+        <v>26.01814284653781</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.003416666666666665</v>
       </c>
       <c r="B42">
-        <v>172.5597339626876</v>
+        <v>174.1191208717433</v>
       </c>
       <c r="C42">
-        <v>-227.3121840573286</v>
+        <v>-230.3468119599512</v>
       </c>
       <c r="D42">
-        <v>54.75245009464098</v>
+        <v>56.22769108820785</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.003499999999999998</v>
       </c>
       <c r="B43">
-        <v>156.9103167000063</v>
+        <v>159.1424134832399</v>
       </c>
       <c r="C43">
-        <v>-246.8277767069492</v>
+        <v>-253.1017280233152</v>
       </c>
       <c r="D43">
-        <v>89.91746000694285</v>
+        <v>93.95931454007524</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.003583333333333332</v>
       </c>
       <c r="B44">
-        <v>145.3462784784433</v>
+        <v>150.7140015962638</v>
       </c>
       <c r="C44">
-        <v>-262.5243381383029</v>
+        <v>-272.9867812144118</v>
       </c>
       <c r="D44">
-        <v>117.1780596598596</v>
+        <v>122.272779618148</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.003666666666666665</v>
       </c>
       <c r="B45">
-        <v>139.7001314843668</v>
+        <v>142.9277710239089</v>
       </c>
       <c r="C45">
-        <v>-269.7752948516057</v>
+        <v>-272.9129487859361</v>
       </c>
       <c r="D45">
-        <v>130.0751633672389</v>
+        <v>129.9851777620271</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003749999999999998</v>
       </c>
       <c r="B46">
-        <v>138.1413314947304</v>
+        <v>140.8013023155641</v>
       </c>
       <c r="C46">
-        <v>-276.6194046331998</v>
+        <v>-281.3686736796303</v>
       </c>
       <c r="D46">
-        <v>138.4780731384694</v>
+        <v>140.5673713640662</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003833333333333331</v>
       </c>
       <c r="B47">
-        <v>130.0360924360605</v>
+        <v>131.2635668058462</v>
       </c>
       <c r="C47">
-        <v>-270.0115085347722</v>
+        <v>-275.1523214522449</v>
       </c>
       <c r="D47">
-        <v>139.9754160987117</v>
+        <v>143.8887546463987</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003916666666666665</v>
       </c>
       <c r="B48">
-        <v>117.1240958732779</v>
+        <v>120.4127950376914</v>
       </c>
       <c r="C48">
-        <v>-262.3546229320553</v>
+        <v>-270.7125716738386</v>
       </c>
       <c r="D48">
-        <v>145.2305270587774</v>
+        <v>150.2997766361472</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003999999999999998</v>
       </c>
       <c r="B49">
-        <v>90.25364542626224</v>
+        <v>95.74463859452626</v>
       </c>
       <c r="C49">
-        <v>-246.5008164376423</v>
+        <v>-256.7019880476516</v>
       </c>
       <c r="D49">
-        <v>156.2471710113801</v>
+        <v>160.9573494531254</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.004083333333333332</v>
       </c>
       <c r="B50">
-        <v>55.0042050347575</v>
+        <v>53.94218587174178</v>
       </c>
       <c r="C50">
-        <v>-226.759525165803</v>
+        <v>-227.3209697325192</v>
       </c>
       <c r="D50">
-        <v>171.7553201310456</v>
+        <v>173.3787838607775</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B51">
-        <v>26.50234306603861</v>
+        <v>25.55792239067489</v>
       </c>
       <c r="C51">
-        <v>-213.4863263870332</v>
+        <v>-220.1420820422072</v>
       </c>
       <c r="D51">
-        <v>186.9839833209946</v>
+        <v>194.5841596515323</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.004249999999999999</v>
       </c>
       <c r="B52">
-        <v>11.81753976539779</v>
+        <v>12.89689110150261</v>
       </c>
       <c r="C52">
-        <v>-206.7191218027402</v>
+        <v>-213.7747794054402</v>
       </c>
       <c r="D52">
-        <v>194.9015820373424</v>
+        <v>200.8778883039376</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.004333333333333333</v>
       </c>
       <c r="B53">
-        <v>3.214965910558149</v>
+        <v>4.816286615965396</v>
       </c>
       <c r="C53">
-        <v>-207.5965006785825</v>
+        <v>-210.7366978824246</v>
       </c>
       <c r="D53">
-        <v>204.3815347680244</v>
+        <v>205.9204112664592</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.004416666666666667</v>
       </c>
       <c r="B54">
-        <v>-3.074278570237908</v>
+        <v>-3.71888649191186</v>
       </c>
       <c r="C54">
-        <v>-205.0582237375363</v>
+        <v>-206.8541039553056</v>
       </c>
       <c r="D54">
-        <v>208.1325023077742</v>
+        <v>210.5729904472174</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B55">
-        <v>-11.68940539876373</v>
+        <v>-13.11947445536699</v>
       </c>
       <c r="C55">
-        <v>-195.4153846950271</v>
+        <v>-199.3523480703687</v>
       </c>
       <c r="D55">
-        <v>207.1047900937909</v>
+        <v>212.4718225257357</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.004583333333333334</v>
       </c>
       <c r="B56">
-        <v>-26.21685862844669</v>
+        <v>-26.33463150156584</v>
       </c>
       <c r="C56">
-        <v>-187.6270218496236</v>
+        <v>-197.0156379110296</v>
       </c>
       <c r="D56">
-        <v>213.8438804780703</v>
+        <v>223.3502694125955</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.004666666666666668</v>
       </c>
       <c r="B57">
-        <v>-54.86394735456207</v>
+        <v>-56.44142446505656</v>
       </c>
       <c r="C57">
-        <v>-172.2854549797284</v>
+        <v>-174.0579257786109</v>
       </c>
       <c r="D57">
-        <v>227.1494023342905</v>
+        <v>230.4993502436674</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.004750000000000002</v>
       </c>
       <c r="B58">
-        <v>-89.79072872389693</v>
+        <v>-93.5117211299394</v>
       </c>
       <c r="C58">
-        <v>-156.6872104715535</v>
+        <v>-158.8547493927704</v>
       </c>
       <c r="D58">
-        <v>246.4779391954505</v>
+        <v>252.3664705227098</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.004833333333333335</v>
       </c>
       <c r="B59">
-        <v>-116.8838539614748</v>
+        <v>-121.8631874593096</v>
       </c>
       <c r="C59">
-        <v>-145.1987310707871</v>
+        <v>-150.1815159345975</v>
       </c>
       <c r="D59">
-        <v>262.0825850322618</v>
+        <v>272.0447033939071</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.004916666666666669</v>
       </c>
       <c r="B60">
-        <v>-129.6999325471587</v>
+        <v>-130.3819261141609</v>
       </c>
       <c r="C60">
-        <v>-139.5453949244169</v>
+        <v>-143.0363919845215</v>
       </c>
       <c r="D60">
-        <v>269.2453274715757</v>
+        <v>273.4183180986824</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.005000000000000003</v>
       </c>
       <c r="B61">
-        <v>-138.1319301899977</v>
+        <v>-139.8465052473054</v>
       </c>
       <c r="C61">
-        <v>-137.9009287340983</v>
+        <v>-140.3850319469434</v>
       </c>
       <c r="D61">
-        <v>276.0328589240959</v>
+        <v>280.2315371942487</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.005083333333333336</v>
       </c>
       <c r="B62">
-        <v>-139.6495395315106</v>
+        <v>-143.0421053405162</v>
       </c>
       <c r="C62">
-        <v>-130.0774990939273</v>
+        <v>-131.3735754116775</v>
       </c>
       <c r="D62">
-        <v>269.7270386254379</v>
+        <v>274.4156807521938</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.00516666666666667</v>
       </c>
       <c r="B63">
-        <v>-144.8250295261074</v>
+        <v>-150.3055742855235</v>
       </c>
       <c r="C63">
-        <v>-117.1971931886479</v>
+        <v>-120.9226320392216</v>
       </c>
       <c r="D63">
-        <v>262.0222227147552</v>
+        <v>271.2282063247451</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.005250000000000004</v>
       </c>
       <c r="B64">
-        <v>-156.4853042349747</v>
+        <v>-161.60580447238</v>
       </c>
       <c r="C64">
-        <v>-90.57637795619334</v>
+        <v>-95.81778444534258</v>
       </c>
       <c r="D64">
-        <v>247.061682191168</v>
+        <v>257.4235889177226</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.005333333333333337</v>
       </c>
       <c r="B65">
-        <v>-172.2445697316585</v>
+        <v>-173.9491711035548</v>
       </c>
       <c r="C65">
-        <v>-55.05439780173121</v>
+        <v>-54.5094914233013</v>
       </c>
       <c r="D65">
-        <v>227.2989675333897</v>
+        <v>228.4586625268561</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.005416666666666671</v>
       </c>
       <c r="B66">
-        <v>-187.4361455437106</v>
+        <v>-195.2808818970461</v>
       </c>
       <c r="C66">
-        <v>-26.41671193071237</v>
+        <v>-26.04832849664562</v>
       </c>
       <c r="D66">
-        <v>213.8528574744229</v>
+        <v>221.3292103936917</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.005500000000000005</v>
       </c>
       <c r="B67">
-        <v>-195.1521380131254</v>
+        <v>-200.9063953954055</v>
       </c>
       <c r="C67">
-        <v>-11.95622730782809</v>
+        <v>-13.15045813257366</v>
       </c>
       <c r="D67">
-        <v>207.1083653209535</v>
+        <v>214.0568535279792</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.005583333333333339</v>
       </c>
       <c r="B68">
-        <v>-204.4332047393773</v>
+        <v>-206.3194833907166</v>
       </c>
       <c r="C68">
-        <v>-3.31227006322176</v>
+        <v>-4.386263359698589</v>
       </c>
       <c r="D68">
-        <v>207.7454748025991</v>
+        <v>210.7057467504152</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.005666666666666672</v>
       </c>
       <c r="B69">
-        <v>-207.9966736768918</v>
+        <v>-211.5626330424139</v>
       </c>
       <c r="C69">
-        <v>3.130900069389213</v>
+        <v>4.258448027234508</v>
       </c>
       <c r="D69">
-        <v>204.8657736075026</v>
+        <v>207.3041850151794</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.005750000000000006</v>
       </c>
       <c r="B70">
-        <v>-207.3816505739235</v>
+        <v>-212.9721338748292</v>
       </c>
       <c r="C70">
-        <v>11.85423929372908</v>
+        <v>13.06613642940156</v>
       </c>
       <c r="D70">
-        <v>195.5274112801945</v>
+        <v>199.9059974454277</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00583333333333334</v>
       </c>
       <c r="B71">
-        <v>-214.2738713152208</v>
+        <v>-222.773597329634</v>
       </c>
       <c r="C71">
-        <v>26.26239646689577</v>
+        <v>25.71100221302637</v>
       </c>
       <c r="D71">
-        <v>188.0114748483251</v>
+        <v>197.0625951166076</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.005916666666666673</v>
       </c>
       <c r="B72">
-        <v>-227.6518922085513</v>
+        <v>-229.5239083109751</v>
       </c>
       <c r="C72">
-        <v>54.8466682173775</v>
+        <v>55.55106792261068</v>
       </c>
       <c r="D72">
-        <v>172.8052239911738</v>
+        <v>173.9728403883644</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B73">
-        <v>-247.3439138734161</v>
+        <v>-252.7567309103437</v>
       </c>
       <c r="C73">
-        <v>90.07623900475303</v>
+        <v>93.67576730643592</v>
       </c>
       <c r="D73">
-        <v>157.267674868663</v>
+        <v>159.0809636039078</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.006083333333333341</v>
       </c>
       <c r="B74">
-        <v>-262.5608338824787</v>
+        <v>-273.143748399632</v>
       </c>
       <c r="C74">
-        <v>117.1806996411756</v>
+        <v>122.3623420769293</v>
       </c>
       <c r="D74">
-        <v>145.3801342413031</v>
+        <v>150.7814063227027</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.006166666666666674</v>
       </c>
       <c r="B75">
-        <v>-269.2465932444137</v>
+        <v>-274.3554635637513</v>
       </c>
       <c r="C75">
-        <v>129.8563996849968</v>
+        <v>130.7676522079506</v>
       </c>
       <c r="D75">
-        <v>139.3901935594169</v>
+        <v>143.5878113558008</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.006250000000000008</v>
       </c>
       <c r="B76">
-        <v>-275.8155934843957</v>
+        <v>-279.642119717068</v>
       </c>
       <c r="C76">
-        <v>138.0842956625748</v>
+        <v>139.7989178067872</v>
       </c>
       <c r="D76">
-        <v>137.7312978218209</v>
+        <v>139.8432019102808</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.006333333333333342</v>
       </c>
       <c r="B77">
-        <v>-269.5193032726414</v>
+        <v>-272.7143353783712</v>
       </c>
       <c r="C77">
-        <v>139.6524590554957</v>
+        <v>142.6478907093042</v>
       </c>
       <c r="D77">
-        <v>129.8668442171458</v>
+        <v>130.066444669067</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.006416666666666676</v>
       </c>
       <c r="B78">
-        <v>-261.875966738045</v>
+        <v>-270.4587111111919</v>
       </c>
       <c r="C78">
-        <v>144.9053614686839</v>
+        <v>150.0208055755774</v>
       </c>
       <c r="D78">
-        <v>116.970605269361</v>
+        <v>120.4379055356144</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.006500000000000009</v>
       </c>
       <c r="B79">
-        <v>-246.857474798147</v>
+        <v>-257.6292046188856</v>
       </c>
       <c r="C79">
-        <v>156.4068253264172</v>
+        <v>161.3704346767215</v>
       </c>
       <c r="D79">
-        <v>90.45064947172976</v>
+        <v>96.25876994216408</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.006583333333333343</v>
       </c>
       <c r="B80">
-        <v>-227.1534717807043</v>
+        <v>-227.9349241977777</v>
       </c>
       <c r="C80">
-        <v>172.0815017185216</v>
+        <v>173.3144894089855</v>
       </c>
       <c r="D80">
-        <v>55.07197006218262</v>
+        <v>54.62043478879215</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.006666666666666677</v>
       </c>
       <c r="B81">
-        <v>-213.7974138192537</v>
+        <v>-220.3243597852565</v>
       </c>
       <c r="C81">
-        <v>187.2701584444779</v>
+        <v>194.6739253074805</v>
       </c>
       <c r="D81">
-        <v>26.52725537477585</v>
+        <v>25.65043447777609</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.00675000000000001</v>
       </c>
       <c r="B82">
-        <v>-207.1889936338047</v>
+        <v>-213.7812294353594</v>
       </c>
       <c r="C82">
-        <v>195.2803538189232</v>
+        <v>201.0889079565398</v>
       </c>
       <c r="D82">
-        <v>11.90863981488155</v>
+        <v>12.69232147881966</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.006833333333333344</v>
       </c>
       <c r="B83">
-        <v>-207.8028734147523</v>
+        <v>-210.7017989262526</v>
       </c>
       <c r="C83">
-        <v>204.5707127111907</v>
+        <v>206.1552355666445</v>
       </c>
       <c r="D83">
-        <v>3.23216070356159</v>
+        <v>4.546563359608129</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.006916666666666678</v>
       </c>
       <c r="B84">
-        <v>-205.1332459716385</v>
+        <v>-207.3402940645548</v>
       </c>
       <c r="C84">
-        <v>208.349761032429</v>
+        <v>211.1924843462299</v>
       </c>
       <c r="D84">
-        <v>-3.21651506079057</v>
+        <v>-3.852190281675163</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.007000000000000011</v>
       </c>
       <c r="B85">
-        <v>-195.2751564039771</v>
+        <v>-199.7612424960411</v>
       </c>
       <c r="C85">
-        <v>207.0906440514264</v>
+        <v>212.7205572613276</v>
       </c>
       <c r="D85">
-        <v>-11.81548764744921</v>
+        <v>-12.95931476528649</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.007083333333333345</v>
       </c>
       <c r="B86">
-        <v>-187.7145465216788</v>
+        <v>-197.6802578058761</v>
       </c>
       <c r="C86">
-        <v>213.9374418767577</v>
+        <v>223.7268266276154</v>
       </c>
       <c r="D86">
-        <v>-26.22289535507893</v>
+        <v>-26.04656882173928</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.007166666666666679</v>
       </c>
       <c r="B87">
-        <v>-172.5366789080723</v>
+        <v>-174.0838697351561</v>
       </c>
       <c r="C87">
-        <v>227.3365438971562</v>
+        <v>230.3614738415239</v>
       </c>
       <c r="D87">
-        <v>-54.79986498908386</v>
+        <v>-56.27760410636784</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.007250000000000013</v>
       </c>
       <c r="B88">
-        <v>-156.8898472785889</v>
+        <v>-159.1286748033587</v>
       </c>
       <c r="C88">
-        <v>246.8588597589709</v>
+        <v>253.1437184880677</v>
       </c>
       <c r="D88">
-        <v>-89.96901248038198</v>
+        <v>-94.01504368470898</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.007333333333333346</v>
       </c>
       <c r="B89">
-        <v>-145.3330181789539</v>
+        <v>-150.7012879557208</v>
       </c>
       <c r="C89">
-        <v>262.5351022109976</v>
+        <v>272.994089641712</v>
       </c>
       <c r="D89">
-        <v>-117.2020840320437</v>
+        <v>-122.2928016859912</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00741666666666668</v>
       </c>
       <c r="B90">
-        <v>-139.6967454856421</v>
+        <v>-142.9215999740018</v>
       </c>
       <c r="C90">
-        <v>269.7884335074721</v>
+        <v>272.9207111345407</v>
       </c>
       <c r="D90">
-        <v>-130.0916880218299</v>
+        <v>-129.9991111605389</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/LineVoltage2000.xlsx
+++ b/BEMFSimulation/ExcelResults/LineVoltage2000.xlsx
@@ -408,13 +408,13 @@
         <v>8.333333333333333e-05</v>
       </c>
       <c r="B2">
-        <v>-131.2779653205497</v>
+        <v>-133.1881464782089</v>
       </c>
       <c r="C2">
-        <v>275.1610967956744</v>
+        <v>276.6919016549024</v>
       </c>
       <c r="D2">
-        <v>-143.8831314751247</v>
+        <v>-143.5037551766935</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B3">
-        <v>-120.4287238100457</v>
+        <v>-120.1647545398707</v>
       </c>
       <c r="C3">
-        <v>270.7127899744702</v>
+        <v>269.2245871450418</v>
       </c>
       <c r="D3">
-        <v>-150.2840661644245</v>
+        <v>-149.0598326051711</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.00025</v>
       </c>
       <c r="B4">
-        <v>-95.80675872089579</v>
+        <v>-92.68690191089752</v>
       </c>
       <c r="C4">
-        <v>256.7510485969576</v>
+        <v>253.117733695172</v>
       </c>
       <c r="D4">
-        <v>-160.9442898760618</v>
+        <v>-160.4308317842745</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B5">
-        <v>-53.99179491908963</v>
+        <v>-56.35882107039414</v>
       </c>
       <c r="C5">
-        <v>227.3429784530674</v>
+        <v>232.3122535733527</v>
       </c>
       <c r="D5">
-        <v>-173.3511835339777</v>
+        <v>-175.9534325029585</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B6">
-        <v>-25.58855552736634</v>
+        <v>-27.17493380763048</v>
       </c>
       <c r="C6">
-        <v>220.1481819188205</v>
+        <v>218.980128578415</v>
       </c>
       <c r="D6">
-        <v>-194.5596263914541</v>
+        <v>-191.8051947707845</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0005</v>
       </c>
       <c r="B7">
-        <v>-12.90728303006084</v>
+        <v>-12.15130947796489</v>
       </c>
       <c r="C7">
-        <v>213.7865354177982</v>
+        <v>211.6684889306719</v>
       </c>
       <c r="D7">
-        <v>-200.8792523877373</v>
+        <v>-199.517179452707</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0005833333333333334</v>
       </c>
       <c r="B8">
-        <v>-4.827664808919039</v>
+        <v>-3.365152943379812</v>
       </c>
       <c r="C8">
-        <v>210.7335149178913</v>
+        <v>213.4743077077314</v>
       </c>
       <c r="D8">
-        <v>-205.9058501089723</v>
+        <v>-210.1091547643516</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0006666666666666668</v>
       </c>
       <c r="B9">
-        <v>3.705867092072822</v>
+        <v>3.175696798715663</v>
       </c>
       <c r="C9">
-        <v>206.8673441650613</v>
+        <v>210.3502793048154</v>
       </c>
       <c r="D9">
-        <v>-210.5732112571341</v>
+        <v>-213.525976103531</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0007500000000000001</v>
       </c>
       <c r="B10">
-        <v>13.10326983873427</v>
+        <v>12.09852343427548</v>
       </c>
       <c r="C10">
-        <v>199.3610200771305</v>
+        <v>200.2834174165052</v>
       </c>
       <c r="D10">
-        <v>-212.4642899158648</v>
+        <v>-212.3819408507807</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0008333333333333335</v>
       </c>
       <c r="B11">
-        <v>26.30595934949022</v>
+        <v>26.90477131738562</v>
       </c>
       <c r="C11">
-        <v>197.0287791143187</v>
+        <v>192.6620788782418</v>
       </c>
       <c r="D11">
-        <v>-223.3347384638089</v>
+        <v>-219.5668501956274</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0009166666666666669</v>
       </c>
       <c r="B12">
-        <v>56.39268243345875</v>
+        <v>56.30524267301096</v>
       </c>
       <c r="C12">
-        <v>174.0926548389785</v>
+        <v>176.5473095653134</v>
       </c>
       <c r="D12">
-        <v>-230.4853372724373</v>
+        <v>-232.8525522383244</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.001</v>
       </c>
       <c r="B13">
-        <v>93.45659803533412</v>
+        <v>91.9804438784938</v>
       </c>
       <c r="C13">
-        <v>158.8688639612876</v>
+        <v>160.6822492264725</v>
       </c>
       <c r="D13">
-        <v>-252.3254619966218</v>
+        <v>-252.6626931049663</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B14">
-        <v>121.8417409887225</v>
+        <v>119.8314805902111</v>
       </c>
       <c r="C14">
-        <v>150.1933837767232</v>
+        <v>148.879265284032</v>
       </c>
       <c r="D14">
-        <v>-272.0351247654457</v>
+        <v>-268.710745874243</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.001166666666666667</v>
       </c>
       <c r="B15">
-        <v>130.3684611622456</v>
+        <v>132.9533252047272</v>
       </c>
       <c r="C15">
-        <v>143.0429156224897</v>
+        <v>143.0035475595129</v>
       </c>
       <c r="D15">
-        <v>-273.4113767847354</v>
+        <v>-275.95687276424</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.00125</v>
       </c>
       <c r="B16">
-        <v>139.837755859244</v>
+        <v>141.8935583900818</v>
       </c>
       <c r="C16">
-        <v>140.3926077422488</v>
+        <v>141.7310022035046</v>
       </c>
       <c r="D16">
-        <v>-280.2303636014927</v>
+        <v>-283.6245605935864</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001333333333333333</v>
       </c>
       <c r="B17">
-        <v>143.0371063712423</v>
+        <v>143.0729623937654</v>
       </c>
       <c r="C17">
-        <v>131.3878957696449</v>
+        <v>133.134120746225</v>
       </c>
       <c r="D17">
-        <v>-274.4250021408872</v>
+        <v>-276.2070831399905</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001416666666666667</v>
       </c>
       <c r="B18">
-        <v>150.2876147887282</v>
+        <v>148.6450417101917</v>
       </c>
       <c r="C18">
-        <v>120.9378658395752</v>
+        <v>120.2474958006481</v>
       </c>
       <c r="D18">
-        <v>-271.2254806283033</v>
+        <v>-268.8925375108398</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0015</v>
       </c>
       <c r="B19">
-        <v>161.5926147688584</v>
+        <v>160.6845755100084</v>
       </c>
       <c r="C19">
-        <v>95.88048456442317</v>
+        <v>93.05311856505102</v>
       </c>
       <c r="D19">
-        <v>-257.4730993332815</v>
+        <v>-253.7376940750594</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001583333333333333</v>
       </c>
       <c r="B20">
-        <v>173.9216956278951</v>
+        <v>176.5299378492274</v>
       </c>
       <c r="C20">
-        <v>54.55896813484712</v>
+        <v>56.40903773228179</v>
       </c>
       <c r="D20">
-        <v>-228.4806637627422</v>
+        <v>-232.9389755815092</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001666666666666666</v>
       </c>
       <c r="B21">
-        <v>195.2557086960258</v>
+        <v>192.2296700950988</v>
       </c>
       <c r="C21">
-        <v>26.07844381935148</v>
+        <v>27.10805383643657</v>
       </c>
       <c r="D21">
-        <v>-221.3341525153773</v>
+        <v>-219.3377239315354</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.00175</v>
       </c>
       <c r="B22">
-        <v>200.9073701392932</v>
+        <v>199.7516680743772</v>
       </c>
       <c r="C22">
-        <v>13.16204421298233</v>
+        <v>12.28707001859951</v>
       </c>
       <c r="D22">
-        <v>-214.0694143522755</v>
+        <v>-212.0387380929768</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001833333333333333</v>
       </c>
       <c r="B23">
-        <v>206.3056926756058</v>
+        <v>210.171565003986</v>
       </c>
       <c r="C23">
-        <v>4.398044080007054</v>
+        <v>3.399320584414326</v>
       </c>
       <c r="D23">
-        <v>-210.7037367556129</v>
+        <v>-213.5708855884003</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001916666666666666</v>
       </c>
       <c r="B24">
-        <v>211.5628398976735</v>
+        <v>213.3861758966058</v>
       </c>
       <c r="C24">
-        <v>-4.245642775272117</v>
+        <v>-3.294010317068938</v>
       </c>
       <c r="D24">
-        <v>-207.3171971224014</v>
+        <v>-210.0921655795369</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.002</v>
       </c>
       <c r="B25">
-        <v>212.9656681278729</v>
+        <v>212.6460802291374</v>
       </c>
       <c r="C25">
-        <v>-13.05109938040144</v>
+        <v>-12.28566372879603</v>
       </c>
       <c r="D25">
-        <v>-199.9145687474715</v>
+        <v>-200.3604165003413</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.002083333333333333</v>
       </c>
       <c r="B26">
-        <v>222.7582631774536</v>
+        <v>219.9564809731445</v>
       </c>
       <c r="C26">
-        <v>-25.68296486216953</v>
+        <v>-26.93777696847062</v>
       </c>
       <c r="D26">
-        <v>-197.075298315284</v>
+        <v>-193.0187040046739</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.002166666666666666</v>
       </c>
       <c r="B27">
-        <v>229.5111748631489</v>
+        <v>233.3822960281612</v>
       </c>
       <c r="C27">
-        <v>-55.5020699580433</v>
+        <v>-56.2728778101046</v>
       </c>
       <c r="D27">
-        <v>-174.0091049051057</v>
+        <v>-177.1094182180566</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.002249999999999999</v>
       </c>
       <c r="B28">
-        <v>252.7130726121029</v>
+        <v>253.5158870281195</v>
       </c>
       <c r="C28">
-        <v>-93.61907759230486</v>
+        <v>-92.28187342042949</v>
       </c>
       <c r="D28">
-        <v>-159.0939950197981</v>
+        <v>-161.23401360769</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.002333333333333333</v>
       </c>
       <c r="B29">
-        <v>273.1340558598428</v>
+        <v>269.1573187169927</v>
       </c>
       <c r="C29">
-        <v>-122.3409660029368</v>
+        <v>-120.140329917229</v>
       </c>
       <c r="D29">
-        <v>-150.793089856906</v>
+        <v>-149.0169887997638</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B30">
-        <v>274.350370563656</v>
+        <v>276.0984401322328</v>
       </c>
       <c r="C30">
-        <v>-130.7549461588753</v>
+        <v>-133.143182318628</v>
       </c>
       <c r="D30">
-        <v>-143.5954244047808</v>
+        <v>-142.9552578136048</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002499999999999999</v>
       </c>
       <c r="B31">
-        <v>279.6416087807248</v>
+        <v>283.4295906565865</v>
       </c>
       <c r="C31">
-        <v>-139.7900866726872</v>
+        <v>-141.8386019778928</v>
       </c>
       <c r="D31">
-        <v>-139.8515221080377</v>
+        <v>-141.5909886786937</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002583333333333332</v>
       </c>
       <c r="B32">
-        <v>272.7244210963569</v>
+        <v>275.9434996034671</v>
       </c>
       <c r="C32">
-        <v>-142.6430746448744</v>
+        <v>-143.0528981360087</v>
       </c>
       <c r="D32">
-        <v>-130.0813464514825</v>
+        <v>-132.8906014674585</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002666666666666666</v>
       </c>
       <c r="B33">
-        <v>270.4562930314329</v>
+        <v>268.6264321743819</v>
       </c>
       <c r="C33">
-        <v>-150.004414163421</v>
+        <v>-148.7004864239507</v>
       </c>
       <c r="D33">
-        <v>-120.4518788680119</v>
+        <v>-119.9259457504312</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002749999999999999</v>
       </c>
       <c r="B34">
-        <v>257.6757208815621</v>
+        <v>253.4606714878535</v>
       </c>
       <c r="C34">
-        <v>-161.3559213548331</v>
+        <v>-160.5741097406641</v>
       </c>
       <c r="D34">
-        <v>-96.319799526729</v>
+        <v>-92.8865617471894</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002833333333333332</v>
       </c>
       <c r="B35">
-        <v>227.9590557453018</v>
+        <v>232.7996618178036</v>
       </c>
       <c r="C35">
-        <v>-173.287581251462</v>
+        <v>-176.3200697414721</v>
       </c>
       <c r="D35">
-        <v>-54.67147449383982</v>
+        <v>-56.47959207633141</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002916666666666665</v>
       </c>
       <c r="B36">
-        <v>220.3283062802284</v>
+        <v>219.2249658539657</v>
       </c>
       <c r="C36">
-        <v>-194.6472014513515</v>
+        <v>-192.0150797714706</v>
       </c>
       <c r="D36">
-        <v>-25.68110482887686</v>
+        <v>-27.20988608249513</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002999999999999999</v>
       </c>
       <c r="B37">
-        <v>213.7946039420724</v>
+        <v>212.0721370335777</v>
       </c>
       <c r="C37">
-        <v>-201.0911102650881</v>
+        <v>-199.8589091861297</v>
       </c>
       <c r="D37">
-        <v>-12.70349367698432</v>
+        <v>-12.21322784744794</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.003083333333333332</v>
       </c>
       <c r="B38">
-        <v>210.6984337303688</v>
+        <v>213.5659029179615</v>
       </c>
       <c r="C38">
-        <v>-206.1409775407705</v>
+        <v>-210.2503235216799</v>
       </c>
       <c r="D38">
-        <v>-4.557456189598341</v>
+        <v>-3.315579396281635</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.003166666666666665</v>
       </c>
       <c r="B39">
-        <v>207.3537934450543</v>
+        <v>210.3961141428877</v>
       </c>
       <c r="C39">
-        <v>-211.1932738202794</v>
+        <v>-213.6781484171415</v>
       </c>
       <c r="D39">
-        <v>3.839480375225079</v>
+        <v>3.282034274253732</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.003249999999999999</v>
       </c>
       <c r="B40">
-        <v>199.7692065133456</v>
+        <v>200.0497442439898</v>
       </c>
       <c r="C40">
-        <v>-212.712729336575</v>
+        <v>-212.2261995608145</v>
       </c>
       <c r="D40">
-        <v>12.94352282322942</v>
+        <v>12.17645531682465</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.003333333333333332</v>
       </c>
       <c r="B41">
-        <v>197.6932465465787</v>
+        <v>192.7004798334187</v>
       </c>
       <c r="C41">
-        <v>-223.7113893931165</v>
+        <v>-219.6056691810844</v>
       </c>
       <c r="D41">
-        <v>26.01814284653781</v>
+        <v>26.90518934766573</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.003416666666666665</v>
       </c>
       <c r="B42">
-        <v>174.1191208717433</v>
+        <v>176.8148796385011</v>
       </c>
       <c r="C42">
-        <v>-230.3468119599512</v>
+        <v>-233.1263077428658</v>
       </c>
       <c r="D42">
-        <v>56.22769108820785</v>
+        <v>56.31142810436474</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.003499999999999998</v>
       </c>
       <c r="B43">
-        <v>159.1424134832399</v>
+        <v>160.8790794852034</v>
       </c>
       <c r="C43">
-        <v>-253.1017280233152</v>
+        <v>-253.0534840911409</v>
       </c>
       <c r="D43">
-        <v>93.95931454007524</v>
+        <v>92.17440460593751</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.003583333333333332</v>
       </c>
       <c r="B44">
-        <v>150.7140015962638</v>
+        <v>148.9385115464925</v>
       </c>
       <c r="C44">
-        <v>-272.9867812144118</v>
+        <v>-269.0351139954871</v>
       </c>
       <c r="D44">
-        <v>122.272779618148</v>
+        <v>120.0966024489946</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.003666666666666665</v>
       </c>
       <c r="B45">
-        <v>142.9277710239089</v>
+        <v>143.1616622591672</v>
       </c>
       <c r="C45">
-        <v>-272.9129487859361</v>
+        <v>-276.5117313675185</v>
       </c>
       <c r="D45">
-        <v>129.9851777620271</v>
+        <v>133.3500691083513</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003749999999999998</v>
       </c>
       <c r="B46">
-        <v>140.8013023155641</v>
+        <v>142.0048456448241</v>
       </c>
       <c r="C46">
-        <v>-281.3686736796303</v>
+        <v>-284.2999829246479</v>
       </c>
       <c r="D46">
-        <v>140.5673713640662</v>
+        <v>142.2951372798238</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003833333333333331</v>
       </c>
       <c r="B47">
-        <v>131.2635668058462</v>
+        <v>133.1709526763048</v>
       </c>
       <c r="C47">
-        <v>-275.1523214522449</v>
+        <v>-276.6776332548751</v>
       </c>
       <c r="D47">
-        <v>143.8887546463987</v>
+        <v>143.5066805785704</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003916666666666665</v>
       </c>
       <c r="B48">
-        <v>120.4127950376914</v>
+        <v>120.1410318832338</v>
       </c>
       <c r="C48">
-        <v>-270.7125716738386</v>
+        <v>-269.2133525208818</v>
       </c>
       <c r="D48">
-        <v>150.2997766361472</v>
+        <v>149.0723206376479</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003999999999999998</v>
       </c>
       <c r="B49">
-        <v>95.74463859452626</v>
+        <v>92.63342694824763</v>
       </c>
       <c r="C49">
-        <v>-256.7019880476516</v>
+        <v>-253.0851494355265</v>
       </c>
       <c r="D49">
-        <v>160.9573494531254</v>
+        <v>160.4517224872789</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.004083333333333332</v>
       </c>
       <c r="B50">
-        <v>53.94218587174178</v>
+        <v>56.31078241085358</v>
       </c>
       <c r="C50">
-        <v>-227.3209697325192</v>
+        <v>-232.2875783404921</v>
       </c>
       <c r="D50">
-        <v>173.3787838607775</v>
+        <v>175.9767959296385</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.004166666666666666</v>
       </c>
       <c r="B51">
-        <v>25.55792239067489</v>
+        <v>27.14235268886424</v>
       </c>
       <c r="C51">
-        <v>-220.1420820422072</v>
+        <v>-218.9650671767166</v>
       </c>
       <c r="D51">
-        <v>194.5841596515323</v>
+        <v>191.8227144878524</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.004249999999999999</v>
       </c>
       <c r="B52">
-        <v>12.89689110150261</v>
+        <v>12.13665083866555</v>
       </c>
       <c r="C52">
-        <v>-213.7747794054402</v>
+        <v>-211.6656092126497</v>
       </c>
       <c r="D52">
-        <v>200.8778883039376</v>
+        <v>199.5289583739841</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.004333333333333333</v>
       </c>
       <c r="B53">
-        <v>4.816286615965396</v>
+        <v>3.355061612576037</v>
       </c>
       <c r="C53">
-        <v>-210.7366978824246</v>
+        <v>-213.4785868112307</v>
       </c>
       <c r="D53">
-        <v>205.9204112664592</v>
+        <v>210.1235251986546</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.004416666666666667</v>
       </c>
       <c r="B54">
-        <v>-3.71888649191186</v>
+        <v>-3.186208629974431</v>
       </c>
       <c r="C54">
-        <v>-206.8541039553056</v>
+        <v>-210.3357592870272</v>
       </c>
       <c r="D54">
-        <v>210.5729904472174</v>
+        <v>213.5219679170016</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.004500000000000001</v>
       </c>
       <c r="B55">
-        <v>-13.11947445536699</v>
+        <v>-12.11360927996481</v>
       </c>
       <c r="C55">
-        <v>-199.3523480703687</v>
+        <v>-200.2733401689756</v>
       </c>
       <c r="D55">
-        <v>212.4718225257357</v>
+        <v>212.3869494489404</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.004583333333333334</v>
       </c>
       <c r="B56">
-        <v>-26.33463150156584</v>
+        <v>-26.93658290902707</v>
       </c>
       <c r="C56">
-        <v>-197.0156379110296</v>
+        <v>-192.6430780407738</v>
       </c>
       <c r="D56">
-        <v>223.3502694125955</v>
+        <v>219.5796609498008</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.004666666666666668</v>
       </c>
       <c r="B57">
-        <v>-56.44142446505656</v>
+        <v>-56.35378587249551</v>
       </c>
       <c r="C57">
-        <v>-174.0579257786109</v>
+        <v>-176.5241548015936</v>
       </c>
       <c r="D57">
-        <v>230.4993502436674</v>
+        <v>232.8779406740891</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.004750000000000002</v>
       </c>
       <c r="B58">
-        <v>-93.5117211299394</v>
+        <v>-92.0328424178646</v>
       </c>
       <c r="C58">
-        <v>-158.8547493927704</v>
+        <v>-160.6610277492931</v>
       </c>
       <c r="D58">
-        <v>252.3664705227098</v>
+        <v>252.6938701671577</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.004833333333333335</v>
       </c>
       <c r="B59">
-        <v>-121.8631874593096</v>
+        <v>-119.8561870551337</v>
       </c>
       <c r="C59">
-        <v>-150.1815159345975</v>
+        <v>-148.8661515163294</v>
       </c>
       <c r="D59">
-        <v>272.0447033939071</v>
+        <v>268.7223385714631</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.004916666666666669</v>
       </c>
       <c r="B60">
-        <v>-130.3819261141609</v>
+        <v>-132.9712613201615</v>
       </c>
       <c r="C60">
-        <v>-143.0363919845215</v>
+        <v>-143.000656159292</v>
       </c>
       <c r="D60">
-        <v>273.4183180986824</v>
+        <v>275.9719174794535</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.005000000000000003</v>
       </c>
       <c r="B61">
-        <v>-139.8465052473054</v>
+        <v>-141.8988935638545</v>
       </c>
       <c r="C61">
-        <v>-140.3850319469434</v>
+        <v>-141.7259140521728</v>
       </c>
       <c r="D61">
-        <v>280.2315371942487</v>
+        <v>283.6248076160273</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.005083333333333336</v>
       </c>
       <c r="B62">
-        <v>-143.0421053405162</v>
+        <v>-143.0745568373991</v>
       </c>
       <c r="C62">
-        <v>-131.3735754116775</v>
+        <v>-133.116478553493</v>
       </c>
       <c r="D62">
-        <v>274.4156807521938</v>
+        <v>276.1910353908921</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.00516666666666667</v>
       </c>
       <c r="B63">
-        <v>-150.3055742855235</v>
+        <v>-148.6587596283913</v>
       </c>
       <c r="C63">
-        <v>-120.9226320392216</v>
+        <v>-120.2241205591102</v>
       </c>
       <c r="D63">
-        <v>271.2282063247451</v>
+        <v>268.8828801875015</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.005250000000000004</v>
       </c>
       <c r="B64">
-        <v>-161.60580447238</v>
+        <v>-160.706388758028</v>
       </c>
       <c r="C64">
-        <v>-95.81778444534258</v>
+        <v>-92.99962284833374</v>
       </c>
       <c r="D64">
-        <v>257.4235889177226</v>
+        <v>253.7060116063618</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.005333333333333337</v>
       </c>
       <c r="B65">
-        <v>-173.9491711035548</v>
+        <v>-176.552900055594</v>
       </c>
       <c r="C65">
-        <v>-54.5094914233013</v>
+        <v>-56.3602987098727</v>
       </c>
       <c r="D65">
-        <v>228.4586625268561</v>
+        <v>232.9131987654667</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.005416666666666671</v>
       </c>
       <c r="B66">
-        <v>-195.2808818970461</v>
+        <v>-192.2491572268247</v>
       </c>
       <c r="C66">
-        <v>-26.04832849664562</v>
+        <v>-27.07615742626567</v>
       </c>
       <c r="D66">
-        <v>221.3292103936917</v>
+        <v>219.3253146530903</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.005500000000000005</v>
       </c>
       <c r="B67">
-        <v>-200.9063953954055</v>
+        <v>-199.7600318967312</v>
       </c>
       <c r="C67">
-        <v>-13.15045813257366</v>
+        <v>-12.27207756451271</v>
       </c>
       <c r="D67">
-        <v>214.0568535279792</v>
+        <v>212.0321094612439</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.005583333333333339</v>
       </c>
       <c r="B68">
-        <v>-206.3194833907166</v>
+        <v>-210.1862411792792</v>
       </c>
       <c r="C68">
-        <v>-4.386263359698589</v>
+        <v>-3.389164036496638</v>
       </c>
       <c r="D68">
-        <v>210.7057467504152</v>
+        <v>213.5754052157758</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.005666666666666672</v>
       </c>
       <c r="B69">
-        <v>-211.5626330424139</v>
+        <v>-213.3824245414405</v>
       </c>
       <c r="C69">
-        <v>4.258448027234508</v>
+        <v>3.304849367567201</v>
       </c>
       <c r="D69">
-        <v>207.3041850151794</v>
+        <v>210.0775751738733</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.005750000000000006</v>
       </c>
       <c r="B70">
-        <v>-212.9721338748292</v>
+        <v>-212.65222434896</v>
       </c>
       <c r="C70">
-        <v>13.06613642940156</v>
+        <v>12.30063136109489</v>
       </c>
       <c r="D70">
-        <v>199.9059974454277</v>
+        <v>200.3515929878652</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.00583333333333334</v>
       </c>
       <c r="B71">
-        <v>-222.773597329634</v>
+        <v>-219.9703382565842</v>
       </c>
       <c r="C71">
-        <v>25.71100221302637</v>
+        <v>26.9694683808841</v>
       </c>
       <c r="D71">
-        <v>197.0625951166076</v>
+        <v>193.0008698757001</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.005916666666666673</v>
       </c>
       <c r="B72">
-        <v>-229.5239083109751</v>
+        <v>-233.407228670258</v>
       </c>
       <c r="C72">
-        <v>55.55106792261068</v>
+        <v>56.32143876606794</v>
       </c>
       <c r="D72">
-        <v>173.9728403883644</v>
+        <v>177.0857899041901</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.006000000000000007</v>
       </c>
       <c r="B73">
-        <v>-252.7567309103437</v>
+        <v>-253.5473718569104</v>
       </c>
       <c r="C73">
-        <v>93.67576730643592</v>
+        <v>92.33493587798348</v>
       </c>
       <c r="D73">
-        <v>159.0809636039078</v>
+        <v>161.2124359789269</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.006083333333333341</v>
       </c>
       <c r="B74">
-        <v>-273.143748399632</v>
+        <v>-269.1683732157899</v>
       </c>
       <c r="C74">
-        <v>122.3623420769293</v>
+        <v>120.1648090647622</v>
       </c>
       <c r="D74">
-        <v>150.7814063227027</v>
+        <v>149.0035641510276</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.006166666666666674</v>
       </c>
       <c r="B75">
-        <v>-274.3554635637513</v>
+        <v>-276.1116450186847</v>
       </c>
       <c r="C75">
-        <v>130.7676522079506</v>
+        <v>133.1601292451703</v>
       </c>
       <c r="D75">
-        <v>143.5878113558008</v>
+        <v>142.9515157735144</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.006250000000000008</v>
       </c>
       <c r="B76">
-        <v>-279.642119717068</v>
+        <v>-283.430553859569</v>
       </c>
       <c r="C76">
-        <v>139.7989178067872</v>
+        <v>141.8444622335849</v>
       </c>
       <c r="D76">
-        <v>139.8432019102808</v>
+        <v>141.5860916259841</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.006333333333333342</v>
       </c>
       <c r="B77">
-        <v>-272.7143353783712</v>
+        <v>-275.9291105884798</v>
       </c>
       <c r="C77">
-        <v>142.6478907093042</v>
+        <v>143.0558191283023</v>
       </c>
       <c r="D77">
-        <v>130.066444669067</v>
+        <v>132.8732914601775</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.006416666666666676</v>
       </c>
       <c r="B78">
-        <v>-270.4587111111919</v>
+        <v>-268.6160589225203</v>
       </c>
       <c r="C78">
-        <v>150.0208055755774</v>
+        <v>148.7135592064203</v>
       </c>
       <c r="D78">
-        <v>120.4379055356144</v>
+        <v>119.9024997161001</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.006500000000000009</v>
       </c>
       <c r="B79">
-        <v>-257.6292046188856</v>
+        <v>-253.4282181841706</v>
       </c>
       <c r="C79">
-        <v>161.3704346767215</v>
+        <v>160.5950383883666</v>
       </c>
       <c r="D79">
-        <v>96.25876994216408</v>
+        <v>92.83317979580403</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.006583333333333343</v>
       </c>
       <c r="B80">
-        <v>-227.9349241977777</v>
+        <v>-232.7728920633488</v>
       </c>
       <c r="C80">
-        <v>173.3144894089855</v>
+        <v>176.3418977583553</v>
       </c>
       <c r="D80">
-        <v>54.62043478879215</v>
+        <v>56.43099430499343</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.006666666666666677</v>
       </c>
       <c r="B81">
-        <v>-220.3243597852565</v>
+        <v>-219.2121859732669</v>
       </c>
       <c r="C81">
-        <v>194.6739253074805</v>
+        <v>192.0346370815605</v>
       </c>
       <c r="D81">
-        <v>25.65043447777609</v>
+        <v>27.17754889170644</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.00675000000000001</v>
       </c>
       <c r="B82">
-        <v>-213.7812294353594</v>
+        <v>-212.0673896225449</v>
       </c>
       <c r="C82">
-        <v>201.0889079565398</v>
+        <v>199.8692173899054</v>
       </c>
       <c r="D82">
-        <v>12.69232147881966</v>
+        <v>12.19817223263948</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.006833333333333344</v>
       </c>
       <c r="B83">
-        <v>-210.7017989262526</v>
+        <v>-213.5710111417219</v>
       </c>
       <c r="C83">
-        <v>206.1552355666445</v>
+        <v>210.2655898688349</v>
       </c>
       <c r="D83">
-        <v>4.546563359608129</v>
+        <v>3.305421272886974</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.006916666666666678</v>
       </c>
       <c r="B84">
-        <v>-207.3402940645548</v>
+        <v>-210.3801142110019</v>
       </c>
       <c r="C84">
-        <v>211.1924843462299</v>
+        <v>213.6727082184885</v>
       </c>
       <c r="D84">
-        <v>-3.852190281675163</v>
+        <v>-3.292594007486557</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.007000000000000011</v>
       </c>
       <c r="B85">
-        <v>-199.7612424960411</v>
+        <v>-200.0393543791764</v>
       </c>
       <c r="C85">
-        <v>212.7205572613276</v>
+        <v>212.2305392798467</v>
       </c>
       <c r="D85">
-        <v>-12.95931476528649</v>
+        <v>-12.19118490067034</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.007083333333333345</v>
       </c>
       <c r="B86">
-        <v>-197.6802578058761</v>
+        <v>-192.6833873661481</v>
       </c>
       <c r="C86">
-        <v>223.7268266276154</v>
+        <v>219.6203446238256</v>
       </c>
       <c r="D86">
-        <v>-26.04656882173928</v>
+        <v>-26.93695725767748</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.007166666666666679</v>
       </c>
       <c r="B87">
-        <v>-174.0838697351561</v>
+        <v>-176.7914512750882</v>
       </c>
       <c r="C87">
-        <v>230.3614738415239</v>
+        <v>233.1519978072011</v>
       </c>
       <c r="D87">
-        <v>-56.27760410636784</v>
+        <v>-56.36054653211292</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.007250000000000013</v>
       </c>
       <c r="B88">
-        <v>-159.1286748033587</v>
+        <v>-160.8580554855</v>
       </c>
       <c r="C88">
-        <v>253.1437184880677</v>
+        <v>253.0850926190462</v>
       </c>
       <c r="D88">
-        <v>-94.01504368470898</v>
+        <v>-92.22703713354625</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.007333333333333346</v>
       </c>
       <c r="B89">
-        <v>-150.7012879557208</v>
+        <v>-148.924592366613</v>
       </c>
       <c r="C89">
-        <v>272.994089641712</v>
+        <v>269.045248705161</v>
       </c>
       <c r="D89">
-        <v>-122.2928016859912</v>
+        <v>-120.120656338548</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.00741666666666668</v>
       </c>
       <c r="B90">
-        <v>-142.9215999740018</v>
+        <v>-143.1594516313928</v>
       </c>
       <c r="C90">
-        <v>272.9207111345407</v>
+        <v>276.5276591803881</v>
       </c>
       <c r="D90">
-        <v>-129.9991111605389</v>
+        <v>-133.3682075489953</v>
       </c>
     </row>
   </sheetData>
